--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H2">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I2">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J2">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.853017333333334</v>
+        <v>2.862697666666667</v>
       </c>
       <c r="N2">
-        <v>11.559052</v>
+        <v>8.588093000000001</v>
       </c>
       <c r="O2">
-        <v>0.06452481780012838</v>
+        <v>0.06997451156315468</v>
       </c>
       <c r="P2">
-        <v>0.06452481780012839</v>
+        <v>0.06997451156315466</v>
       </c>
       <c r="Q2">
-        <v>1.981899643850667</v>
+        <v>2.513735775332556</v>
       </c>
       <c r="R2">
-        <v>17.83709679465601</v>
+        <v>22.623621977993</v>
       </c>
       <c r="S2">
-        <v>0.003753588772846535</v>
+        <v>0.007070466992819866</v>
       </c>
       <c r="T2">
-        <v>0.003753588772846535</v>
+        <v>0.007070466992819865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H3">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I3">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J3">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.565863999999999</v>
       </c>
       <c r="O3">
-        <v>0.04223408598737599</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="P3">
-        <v>0.042234085987376</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="Q3">
-        <v>1.297232953621333</v>
+        <v>2.214529233451555</v>
       </c>
       <c r="R3">
-        <v>11.675096582592</v>
+        <v>19.930763101064</v>
       </c>
       <c r="S3">
-        <v>0.002456874678588155</v>
+        <v>0.006228878947184674</v>
       </c>
       <c r="T3">
-        <v>0.002456874678588155</v>
+        <v>0.006228878947184674</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H4">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I4">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J4">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.84381733333333</v>
+        <v>17.93719066666667</v>
       </c>
       <c r="N4">
-        <v>53.53145199999999</v>
+        <v>53.811572</v>
       </c>
       <c r="O4">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="P4">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="Q4">
-        <v>9.178431384650667</v>
+        <v>15.75065310346356</v>
       </c>
       <c r="R4">
-        <v>82.60588246185601</v>
+        <v>141.755877931172</v>
       </c>
       <c r="S4">
-        <v>0.01738335092024615</v>
+        <v>0.04430237814818139</v>
       </c>
       <c r="T4">
-        <v>0.01738335092024615</v>
+        <v>0.04430237814818139</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H5">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I5">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J5">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.149381666666667</v>
+        <v>0.5052413333333333</v>
       </c>
       <c r="N5">
-        <v>3.448145</v>
+        <v>1.515724</v>
       </c>
       <c r="O5">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="P5">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="Q5">
-        <v>0.5912143441733333</v>
+        <v>0.4436525832137778</v>
       </c>
       <c r="R5">
-        <v>5.320929097560001</v>
+        <v>3.992873248924</v>
       </c>
       <c r="S5">
-        <v>0.001119721440750237</v>
+        <v>0.001247876159727765</v>
       </c>
       <c r="T5">
-        <v>0.001119721440750237</v>
+        <v>0.001247876159727765</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H6">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I6">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J6">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.697805</v>
+        <v>11.46238066666667</v>
       </c>
       <c r="N6">
-        <v>32.09341499999999</v>
+        <v>34.387142</v>
       </c>
       <c r="O6">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="P6">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="Q6">
-        <v>5.50269414468</v>
+        <v>10.06512028419356</v>
       </c>
       <c r="R6">
-        <v>49.52424730212</v>
+        <v>90.586082557742</v>
       </c>
       <c r="S6">
-        <v>0.01042174412108402</v>
+        <v>0.02831049366703524</v>
       </c>
       <c r="T6">
-        <v>0.01042174412108402</v>
+        <v>0.02831049366703524</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H7">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I7">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J7">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.64775066666667</v>
+        <v>5.621112333333333</v>
       </c>
       <c r="N7">
-        <v>70.943252</v>
+        <v>16.863337</v>
       </c>
       <c r="O7">
-        <v>0.3960186708606028</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="P7">
-        <v>0.3960186708606029</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="Q7">
-        <v>12.16383539691734</v>
+        <v>4.935900613604112</v>
       </c>
       <c r="R7">
-        <v>109.474518572256</v>
+        <v>44.42310552243701</v>
       </c>
       <c r="S7">
-        <v>0.02303751157243885</v>
+        <v>0.01388336941010047</v>
       </c>
       <c r="T7">
-        <v>0.02303751157243885</v>
+        <v>0.01388336941010047</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.345897</v>
       </c>
       <c r="I8">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J8">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.853017333333334</v>
+        <v>2.862697666666667</v>
       </c>
       <c r="N8">
-        <v>11.559052</v>
+        <v>8.588093000000001</v>
       </c>
       <c r="O8">
-        <v>0.06452481780012838</v>
+        <v>0.06997451156315468</v>
       </c>
       <c r="P8">
-        <v>0.06452481780012839</v>
+        <v>0.06997451156315466</v>
       </c>
       <c r="Q8">
-        <v>0.444249045516</v>
+        <v>0.330066178269</v>
       </c>
       <c r="R8">
-        <v>3.998241409644001</v>
+        <v>2.970595604421</v>
       </c>
       <c r="S8">
-        <v>0.0008413787422438694</v>
+        <v>0.000928387956203719</v>
       </c>
       <c r="T8">
-        <v>0.0008413787422438695</v>
+        <v>0.0009283879562037188</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.345897</v>
       </c>
       <c r="I9">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J9">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.565863999999999</v>
       </c>
       <c r="O9">
-        <v>0.04223408598737599</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="P9">
-        <v>0.042234085987376</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="Q9">
         <v>0.290778851112</v>
@@ -1013,10 +1013,10 @@
         <v>2.617009660008</v>
       </c>
       <c r="S9">
-        <v>0.000550716195091792</v>
+        <v>0.0008178832036256817</v>
       </c>
       <c r="T9">
-        <v>0.0005507161950917921</v>
+        <v>0.0008178832036256817</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.345897</v>
       </c>
       <c r="I10">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J10">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.84381733333333</v>
+        <v>17.93719066666667</v>
       </c>
       <c r="N10">
-        <v>53.53145199999999</v>
+        <v>53.811572</v>
       </c>
       <c r="O10">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="P10">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="Q10">
-        <v>2.057374294715999</v>
+        <v>2.068140146676</v>
       </c>
       <c r="R10">
-        <v>18.516368652444</v>
+        <v>18.613261320084</v>
       </c>
       <c r="S10">
-        <v>0.003896532843199257</v>
+        <v>0.005817125565499728</v>
       </c>
       <c r="T10">
-        <v>0.003896532843199257</v>
+        <v>0.005817125565499728</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.345897</v>
       </c>
       <c r="I11">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J11">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.149381666666667</v>
+        <v>0.5052413333333333</v>
       </c>
       <c r="N11">
-        <v>3.448145</v>
+        <v>1.515724</v>
       </c>
       <c r="O11">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="P11">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="Q11">
-        <v>0.132522556785</v>
+        <v>0.058253820492</v>
       </c>
       <c r="R11">
-        <v>1.192703011065</v>
+        <v>0.5242843844280001</v>
       </c>
       <c r="S11">
-        <v>0.0002509890865768652</v>
+        <v>0.000163852429931642</v>
       </c>
       <c r="T11">
-        <v>0.0002509890865768652</v>
+        <v>0.000163852429931642</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.345897</v>
       </c>
       <c r="I12">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J12">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.697805</v>
+        <v>11.46238066666667</v>
       </c>
       <c r="N12">
-        <v>32.09341499999999</v>
+        <v>34.387142</v>
       </c>
       <c r="O12">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="P12">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="Q12">
-        <v>1.233446218695</v>
+        <v>1.321601028486</v>
       </c>
       <c r="R12">
-        <v>11.101015968255</v>
+        <v>11.894409256374</v>
       </c>
       <c r="S12">
-        <v>0.002336066759368374</v>
+        <v>0.003717310522960925</v>
       </c>
       <c r="T12">
-        <v>0.002336066759368374</v>
+        <v>0.003717310522960924</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.345897</v>
       </c>
       <c r="I13">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J13">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.64775066666667</v>
+        <v>5.621112333333333</v>
       </c>
       <c r="N13">
-        <v>70.943252</v>
+        <v>16.863337</v>
       </c>
       <c r="O13">
-        <v>0.3960186708606028</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="P13">
-        <v>0.3960186708606029</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="Q13">
-        <v>2.726562004116</v>
+        <v>0.648108630921</v>
       </c>
       <c r="R13">
-        <v>24.539058037044</v>
+        <v>5.832977678289001</v>
       </c>
       <c r="S13">
-        <v>0.005163930756471194</v>
+        <v>0.001822956385335435</v>
       </c>
       <c r="T13">
-        <v>0.005163930756471194</v>
+        <v>0.001822956385335435</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H14">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I14">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J14">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.853017333333334</v>
+        <v>2.862697666666667</v>
       </c>
       <c r="N14">
-        <v>11.559052</v>
+        <v>8.588093000000001</v>
       </c>
       <c r="O14">
-        <v>0.06452481780012838</v>
+        <v>0.06997451156315468</v>
       </c>
       <c r="P14">
-        <v>0.06452481780012839</v>
+        <v>0.06997451156315466</v>
       </c>
       <c r="Q14">
-        <v>16.39592318166978</v>
+        <v>10.07894872973033</v>
       </c>
       <c r="R14">
-        <v>147.563308635028</v>
+        <v>90.710538567573</v>
       </c>
       <c r="S14">
-        <v>0.03105281004824032</v>
+        <v>0.02834938938896801</v>
       </c>
       <c r="T14">
-        <v>0.03105281004824033</v>
+        <v>0.02834938938896801</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H15">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I15">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J15">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.565863999999999</v>
       </c>
       <c r="O15">
-        <v>0.04223408598737599</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="P15">
-        <v>0.042234085987376</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="Q15">
-        <v>10.73179054363289</v>
+        <v>8.879265204989332</v>
       </c>
       <c r="R15">
-        <v>96.58611489269599</v>
+        <v>79.91338684490398</v>
       </c>
       <c r="S15">
-        <v>0.02032531194105015</v>
+        <v>0.02497500022414464</v>
       </c>
       <c r="T15">
-        <v>0.02032531194105016</v>
+        <v>0.02497500022414464</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H16">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I16">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J16">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.84381733333333</v>
+        <v>17.93719066666667</v>
       </c>
       <c r="N16">
-        <v>53.53145199999999</v>
+        <v>53.811572</v>
       </c>
       <c r="O16">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="P16">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="Q16">
-        <v>75.93162266206976</v>
+        <v>63.15302771572133</v>
       </c>
       <c r="R16">
-        <v>683.3846039586278</v>
+        <v>568.3772494414919</v>
       </c>
       <c r="S16">
-        <v>0.1438095451566871</v>
+        <v>0.1776325906415415</v>
       </c>
       <c r="T16">
-        <v>0.1438095451566871</v>
+        <v>0.1776325906415415</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H17">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I17">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J17">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.149381666666667</v>
+        <v>0.5052413333333333</v>
       </c>
       <c r="N17">
-        <v>3.448145</v>
+        <v>1.515724</v>
       </c>
       <c r="O17">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="P17">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="Q17">
-        <v>4.891017060850555</v>
+        <v>1.778847118262667</v>
       </c>
       <c r="R17">
-        <v>44.01915354765499</v>
+        <v>16.009624064364</v>
       </c>
       <c r="S17">
-        <v>0.009263267584901392</v>
+        <v>0.005003421584070428</v>
       </c>
       <c r="T17">
-        <v>0.009263267584901393</v>
+        <v>0.005003421584070428</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H18">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I18">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J18">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.697805</v>
+        <v>11.46238066666667</v>
       </c>
       <c r="N18">
-        <v>32.09341499999999</v>
+        <v>34.387142</v>
       </c>
       <c r="O18">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="P18">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="Q18">
-        <v>45.52286528146498</v>
+        <v>40.35660084025133</v>
       </c>
       <c r="R18">
-        <v>409.7057875331849</v>
+        <v>363.209407562262</v>
       </c>
       <c r="S18">
-        <v>0.0862173402969678</v>
+        <v>0.1135123337080463</v>
       </c>
       <c r="T18">
-        <v>0.08621734029696781</v>
+        <v>0.1135123337080463</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H19">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I19">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J19">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.64775066666667</v>
+        <v>5.621112333333333</v>
       </c>
       <c r="N19">
-        <v>70.943252</v>
+        <v>16.863337</v>
       </c>
       <c r="O19">
-        <v>0.3960186708606028</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="P19">
-        <v>0.3960186708606029</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="Q19">
-        <v>100.6293690909809</v>
+        <v>19.79073922873967</v>
       </c>
       <c r="R19">
-        <v>905.6643218188279</v>
+        <v>178.116653058657</v>
       </c>
       <c r="S19">
-        <v>0.1905854674380256</v>
+        <v>0.05566606079025829</v>
       </c>
       <c r="T19">
-        <v>0.1905854674380257</v>
+        <v>0.05566606079025829</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H20">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I20">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J20">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.853017333333334</v>
+        <v>2.862697666666667</v>
       </c>
       <c r="N20">
-        <v>11.559052</v>
+        <v>8.588093000000001</v>
       </c>
       <c r="O20">
-        <v>0.06452481780012838</v>
+        <v>0.06997451156315468</v>
       </c>
       <c r="P20">
-        <v>0.06452481780012839</v>
+        <v>0.06997451156315466</v>
       </c>
       <c r="Q20">
-        <v>0.4598216572382223</v>
+        <v>0.1328291717333333</v>
       </c>
       <c r="R20">
-        <v>4.138394915144</v>
+        <v>1.1954625456</v>
       </c>
       <c r="S20">
-        <v>0.0008708722540398864</v>
+        <v>0.0003736129642742136</v>
       </c>
       <c r="T20">
-        <v>0.0008708722540398866</v>
+        <v>0.0003736129642742136</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H21">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I21">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J21">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.565863999999999</v>
       </c>
       <c r="O21">
-        <v>0.04223408598737599</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="P21">
-        <v>0.042234085987376</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="Q21">
-        <v>0.300971751223111</v>
+        <v>0.1170186965333333</v>
       </c>
       <c r="R21">
-        <v>2.708745761008</v>
+        <v>1.0531682688</v>
       </c>
       <c r="S21">
-        <v>0.0005700208836710164</v>
+        <v>0.0003291423225546764</v>
       </c>
       <c r="T21">
-        <v>0.0005700208836710165</v>
+        <v>0.0003291423225546764</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H22">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I22">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J22">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.84381733333333</v>
+        <v>17.93719066666667</v>
       </c>
       <c r="N22">
-        <v>53.53145199999999</v>
+        <v>53.811572</v>
       </c>
       <c r="O22">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="P22">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="Q22">
-        <v>2.129493056438222</v>
+        <v>0.8322856469333333</v>
       </c>
       <c r="R22">
-        <v>19.165437507944</v>
+        <v>7.4905708224</v>
       </c>
       <c r="S22">
-        <v>0.004033121078205027</v>
+        <v>0.002340997113931494</v>
       </c>
       <c r="T22">
-        <v>0.004033121078205027</v>
+        <v>0.002340997113931494</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H23">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I23">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J23">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.149381666666667</v>
+        <v>0.5052413333333333</v>
       </c>
       <c r="N23">
-        <v>3.448145</v>
+        <v>1.515724</v>
       </c>
       <c r="O23">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="P23">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="Q23">
-        <v>0.1371679743544444</v>
+        <v>0.02344319786666666</v>
       </c>
       <c r="R23">
-        <v>1.23451176919</v>
+        <v>0.2109887808</v>
       </c>
       <c r="S23">
-        <v>0.0002597872047297965</v>
+        <v>6.593945089574229E-05</v>
       </c>
       <c r="T23">
-        <v>0.0002597872047297965</v>
+        <v>6.593945089574229E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H24">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I24">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J24">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.697805</v>
+        <v>11.46238066666667</v>
       </c>
       <c r="N24">
-        <v>32.09341499999999</v>
+        <v>34.387142</v>
       </c>
       <c r="O24">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="P24">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="Q24">
-        <v>1.27668318057</v>
+        <v>0.5318544629333333</v>
       </c>
       <c r="R24">
-        <v>11.49014862513</v>
+        <v>4.7866901664</v>
       </c>
       <c r="S24">
-        <v>0.002417954747576833</v>
+        <v>0.001495964477275492</v>
       </c>
       <c r="T24">
-        <v>0.002417954747576834</v>
+        <v>0.001495964477275491</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H25">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I25">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J25">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.64775066666667</v>
+        <v>5.621112333333333</v>
       </c>
       <c r="N25">
-        <v>70.943252</v>
+        <v>16.863337</v>
       </c>
       <c r="O25">
-        <v>0.3960186708606028</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="P25">
-        <v>0.3960186708606029</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="Q25">
-        <v>2.822138329727111</v>
+        <v>0.2608196122666667</v>
       </c>
       <c r="R25">
-        <v>25.399244967544</v>
+        <v>2.3473765104</v>
       </c>
       <c r="S25">
-        <v>0.00534494608884532</v>
+        <v>0.0007336158707323063</v>
       </c>
       <c r="T25">
-        <v>0.005344946088845321</v>
+        <v>0.0007336158707323063</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H26">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I26">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J26">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.853017333333334</v>
+        <v>2.862697666666667</v>
       </c>
       <c r="N26">
-        <v>11.559052</v>
+        <v>8.588093000000001</v>
       </c>
       <c r="O26">
-        <v>0.06452481780012838</v>
+        <v>0.06997451156315468</v>
       </c>
       <c r="P26">
-        <v>0.06452481780012839</v>
+        <v>0.06997451156315466</v>
       </c>
       <c r="Q26">
-        <v>4.151972948226668</v>
+        <v>1.176540114023333</v>
       </c>
       <c r="R26">
-        <v>37.36775653404001</v>
+        <v>10.58886102621</v>
       </c>
       <c r="S26">
-        <v>0.007863566196190523</v>
+        <v>0.003309292935065928</v>
       </c>
       <c r="T26">
-        <v>0.007863566196190525</v>
+        <v>0.003309292935065927</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H27">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I27">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J27">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.565863999999999</v>
       </c>
       <c r="O27">
-        <v>0.04223408598737599</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="P27">
-        <v>0.042234085987376</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="Q27">
-        <v>2.717633129253333</v>
+        <v>1.036498148453333</v>
       </c>
       <c r="R27">
-        <v>24.45869816328</v>
+        <v>9.328483336079998</v>
       </c>
       <c r="S27">
-        <v>0.005147020049340967</v>
+        <v>0.002915392309197122</v>
       </c>
       <c r="T27">
-        <v>0.005147020049340968</v>
+        <v>0.002915392309197122</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H28">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I28">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J28">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>17.84381733333333</v>
+        <v>17.93719066666667</v>
       </c>
       <c r="N28">
-        <v>53.53145199999999</v>
+        <v>53.811572</v>
       </c>
       <c r="O28">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="P28">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="Q28">
-        <v>19.22831912022667</v>
+        <v>7.372005992093333</v>
       </c>
       <c r="R28">
-        <v>173.05487208204</v>
+        <v>66.34805392883999</v>
       </c>
       <c r="S28">
-        <v>0.03641718337976121</v>
+        <v>0.02073548284169623</v>
       </c>
       <c r="T28">
-        <v>0.03641718337976121</v>
+        <v>0.02073548284169623</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H29">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I29">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J29">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.149381666666667</v>
+        <v>0.5052413333333333</v>
       </c>
       <c r="N29">
-        <v>3.448145</v>
+        <v>1.515724</v>
       </c>
       <c r="O29">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="P29">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="Q29">
-        <v>1.238562190183333</v>
+        <v>0.2076491355866666</v>
       </c>
       <c r="R29">
-        <v>11.14705971165</v>
+        <v>1.86884222028</v>
       </c>
       <c r="S29">
-        <v>0.002345756075979532</v>
+        <v>0.0005840615285267484</v>
       </c>
       <c r="T29">
-        <v>0.002345756075979533</v>
+        <v>0.0005840615285267484</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H30">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I30">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J30">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.697805</v>
+        <v>11.46238066666667</v>
       </c>
       <c r="N30">
-        <v>32.09341499999999</v>
+        <v>34.387142</v>
       </c>
       <c r="O30">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="P30">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="Q30">
-        <v>11.52784768995</v>
+        <v>4.710923830193333</v>
       </c>
       <c r="R30">
-        <v>103.75062920955</v>
+        <v>42.39831447173999</v>
       </c>
       <c r="S30">
-        <v>0.02183299230026076</v>
+        <v>0.01325056983869514</v>
       </c>
       <c r="T30">
-        <v>0.02183299230026077</v>
+        <v>0.01325056983869513</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H31">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I31">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J31">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>23.64775066666667</v>
+        <v>5.621112333333333</v>
       </c>
       <c r="N31">
-        <v>70.943252</v>
+        <v>16.863337</v>
       </c>
       <c r="O31">
-        <v>0.3960186708606028</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="P31">
-        <v>0.3960186708606029</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="Q31">
-        <v>25.48257964089333</v>
+        <v>2.310220957876667</v>
       </c>
       <c r="R31">
-        <v>229.34321676804</v>
+        <v>20.79198862089</v>
       </c>
       <c r="S31">
-        <v>0.04826234524033854</v>
+        <v>0.006498034196385141</v>
       </c>
       <c r="T31">
-        <v>0.04826234524033855</v>
+        <v>0.006498034196385141</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H32">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I32">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J32">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.853017333333334</v>
+        <v>2.862697666666667</v>
       </c>
       <c r="N32">
-        <v>11.559052</v>
+        <v>8.588093000000001</v>
       </c>
       <c r="O32">
-        <v>0.06452481780012838</v>
+        <v>0.06997451156315468</v>
       </c>
       <c r="P32">
-        <v>0.06452481780012839</v>
+        <v>0.06997451156315466</v>
       </c>
       <c r="Q32">
-        <v>10.63531934979378</v>
+        <v>10.64564740559111</v>
       </c>
       <c r="R32">
-        <v>95.71787414814399</v>
+        <v>95.81082665032001</v>
       </c>
       <c r="S32">
-        <v>0.02014260178656724</v>
+        <v>0.02994336132582294</v>
       </c>
       <c r="T32">
-        <v>0.02014260178656725</v>
+        <v>0.02994336132582294</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H33">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I33">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J33">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.565863999999999</v>
       </c>
       <c r="O33">
-        <v>0.04223408598737599</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="P33">
-        <v>0.042234085987376</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="Q33">
-        <v>6.961243863000887</v>
+        <v>9.378510510151109</v>
       </c>
       <c r="R33">
-        <v>62.65119476700799</v>
+        <v>84.40659459135999</v>
       </c>
       <c r="S33">
-        <v>0.01318414223963391</v>
+        <v>0.02637924385472258</v>
       </c>
       <c r="T33">
-        <v>0.01318414223963391</v>
+        <v>0.02637924385472258</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H34">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I34">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J34">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>17.84381733333333</v>
+        <v>17.93719066666667</v>
       </c>
       <c r="N34">
-        <v>53.53145199999999</v>
+        <v>53.811572</v>
       </c>
       <c r="O34">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="P34">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="Q34">
-        <v>49.25352764899377</v>
+        <v>66.70386800103111</v>
       </c>
       <c r="R34">
-        <v>443.2817488409439</v>
+        <v>600.33481200928</v>
       </c>
       <c r="S34">
-        <v>0.09328297170847043</v>
+        <v>0.1876201554764877</v>
       </c>
       <c r="T34">
-        <v>0.09328297170847043</v>
+        <v>0.1876201554764878</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H35">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I35">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J35">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.149381666666667</v>
+        <v>0.5052413333333333</v>
       </c>
       <c r="N35">
-        <v>3.448145</v>
+        <v>1.515724</v>
       </c>
       <c r="O35">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="P35">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="Q35">
-        <v>3.172589174215555</v>
+        <v>1.878864524195555</v>
       </c>
       <c r="R35">
-        <v>28.55330256793999</v>
+        <v>16.90978071776</v>
       </c>
       <c r="S35">
-        <v>0.006008677150802929</v>
+        <v>0.005284743819404569</v>
       </c>
       <c r="T35">
-        <v>0.00600867715080293</v>
+        <v>0.005284743819404569</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H36">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I36">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J36">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.697805</v>
+        <v>11.46238066666667</v>
       </c>
       <c r="N36">
-        <v>32.09341499999999</v>
+        <v>34.387142</v>
       </c>
       <c r="O36">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="P36">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="Q36">
-        <v>29.52869470181999</v>
+        <v>42.62568989623111</v>
       </c>
       <c r="R36">
-        <v>265.7582523163799</v>
+        <v>383.63120906608</v>
       </c>
       <c r="S36">
-        <v>0.05592542349632511</v>
+        <v>0.119894674856034</v>
       </c>
       <c r="T36">
-        <v>0.05592542349632512</v>
+        <v>0.119894674856034</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H37">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I37">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J37">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>23.64775066666667</v>
+        <v>5.621112333333333</v>
       </c>
       <c r="N37">
-        <v>70.943252</v>
+        <v>16.863337</v>
       </c>
       <c r="O37">
-        <v>0.3960186708606028</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="P37">
-        <v>0.3960186708606029</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="Q37">
-        <v>65.27387719450489</v>
+        <v>20.90349275254222</v>
       </c>
       <c r="R37">
-        <v>587.464894750544</v>
+        <v>188.13143477288</v>
       </c>
       <c r="S37">
-        <v>0.1236244697644833</v>
+        <v>0.05879593909266225</v>
       </c>
       <c r="T37">
-        <v>0.1236244697644833</v>
+        <v>0.05879593909266226</v>
       </c>
     </row>
   </sheetData>
